--- a/7.単体テスト/単体テスト_忘れボ押通知設定.xlsx
+++ b/7.単体テスト/単体テスト_忘れボ押通知設定.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\groupA\7.単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B05AB1-A1F1-413C-822D-B932684E5444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7307D7-7B56-4593-AE1F-A73AB86DAF33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="555" windowWidth="20940" windowHeight="12345" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9705" yWindow="0" windowWidth="14160" windowHeight="12900" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="忘れ防止通知設定" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>完成率</t>
   </si>
@@ -269,32 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>どちらも、時間が入力されていませんを表示</t>
-    <rPh sb="5" eb="7">
-      <t>じかん</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>にゅうりょく</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ひょうじ</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時間がどちらも入力されていない、nullの時</t>
-    <rPh sb="0" eb="2">
-      <t>じかん</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>にゅうりょく</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>とき</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>時間が０～23、分が0～59以外の時、</t>
     <rPh sb="0" eb="2">
       <t>じかん</t>
@@ -399,6 +373,35 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>とうろく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>時間が入力されていませんを表示</t>
+    <rPh sb="0" eb="2">
+      <t>じかん</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>にゅうりょく</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ひょうじ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間が入力されていない、nullの時</t>
+    <rPh sb="0" eb="2">
+      <t>じかん</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>にゅうりょく</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>とき</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1851,7 +1854,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1911,9 +1914,11 @@
       <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H4" s="23">
-        <v>43887</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="54" customHeight="1">
@@ -1930,9 +1935,11 @@
       <c r="F5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H5" s="23">
-        <v>43887</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="64.5" customHeight="1">
@@ -1951,9 +1958,11 @@
       <c r="F6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="H6" s="23">
-        <v>43887</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="64.5" customHeight="1">
@@ -1965,14 +1974,16 @@
         <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="H7" s="23">
-        <v>43887</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="52.5" customHeight="1">
@@ -1984,14 +1995,16 @@
         <v>52</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="14"/>
+        <v>56</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="H8" s="23">
-        <v>43887</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="52.5" customHeight="1">
@@ -2005,14 +2018,16 @@
         <v>52</v>
       </c>
       <c r="E9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="14"/>
       <c r="H9" s="23">
-        <v>43887</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="52.5" customHeight="1" thickBot="1">
@@ -2024,14 +2039,16 @@
         <v>52</v>
       </c>
       <c r="E10" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="26"/>
+      <c r="G10" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="H10" s="27">
-        <v>43887</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="24.95" customHeight="1"/>
@@ -2042,7 +2059,7 @@
       </c>
       <c r="H13" s="6">
         <f>COUNTIF($G$4:$G$10,"=○")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="24.95" customHeight="1">
@@ -2063,7 +2080,7 @@
       </c>
       <c r="H15" s="8">
         <f>COUNTBLANK($G$4:$G$10)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="24.95" customHeight="1" thickBot="1">
@@ -2072,7 +2089,7 @@
       </c>
       <c r="H16" s="10">
         <f>H13/(H13+H14+H15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>42</v>
